--- a/Vacances _test.xlsx
+++ b/Vacances _test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I7ALLIA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACC948C-79DE-40B5-A062-8A18C0D6B8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04936734-1B19-4428-A96A-F68F3D5BE946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,55 +99,57 @@
     <t>Должен быть запущен дипломный проект, postman,mockoon</t>
   </si>
   <si>
+    <t>Проверка добавления новой вакансии при не заполненом поле "Номер телефона"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.05.2021</t>
+  </si>
+  <si>
+    <t>1. Заходим на главную страницу
+2. Нажимаем кнопку "Добавить"
+3. Заполняем поле "Наименование вакансии"
+4. Оставляем поле "Номер телефона компании" пустым
+5. Заполняем поле "Зарплата в USD"
+6. Нажимаем кнопку "Отправить"
+7. Нажимаем кнопу "Объявления"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. http://localhost:50000/
+2. http://localhost:50000/addadv
+3. Оператор ПЭВМ
+4. " "
+5. 300
+7. http://localhost:50000/advlist
+</t>
+  </si>
+  <si>
     <t>1. Заходим на главную страницу
 2. Нажимаем кнопку "Добавить"
 3. Заполняем поле "Наименование вакансии"
 4. Заполняем поле "Номер телефона компании"
 5. Заполняем поле "Зарплата в USD"
-5. Нажимаем кнопку "Отправить"
-6. Нажимаем кнопу "Объявления"</t>
+6. Нажимаем кнопку "Отправить"
+7. Нажимаем кнопу "Объявления"</t>
   </si>
   <si>
     <t xml:space="preserve">1. http://localhost:50000/
 2. http://localhost:50000/addadv
 3. Оператор ПЭВМ
 4. +375295669988
-6. http://localhost:50000/advlist
+5. 300
+7. http://localhost:50000/advlist
 </t>
   </si>
   <si>
     <t>1. Открывается главная страница
 2. Переходим на страницу "Добавить вакансию"
-6. Открывается страница "Объявления", где будет отображаться наша введенная запись</t>
-  </si>
-  <si>
-    <t>Проверка добавления новой вакансии при не заполненом поле "Номер телефона"</t>
-  </si>
-  <si>
-    <t>1. Заходим на главную страницу
-2. Нажимаем кнопку "Добавить"
-3. Заполняем поле "Наименование вакансии"
-4. Оставляем поле "Номер телефона компании" пустым
-5. Заполняем поле "Зарплата в USD"
-5. Нажимаем кнопку "Отправить"
-6. Нажимаем кнопу "Объявления"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. http://localhost:50000/
-2. http://localhost:50000/addadv
-3. Оператор ПЭВМ
-4. " "
-6. http://localhost:50000/advlist
-</t>
+7. Открывается страница "Объявления", где будет отображаться наша введенная запись</t>
   </si>
   <si>
     <t>1. Открывается главная страница
 2. Переходим на страницу "Добавить вакансию"
-5. Под полем  "Номер телефона компании" должна отобразиться запись "! Заполните это поле."
-6. Откроется страница "Объявления" убеждаемся, что наша запить не попала в объявления</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.05.2021</t>
+6. Под полем  "Номер телефона компании" должна отобразиться запись "! Заполните это поле."
+7. Откроется страница "Объявления" убеждаемся, что наша запить не попала в объявления</t>
   </si>
 </sst>
 </file>
@@ -597,7 +599,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +635,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -698,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>17</v>
@@ -728,19 +730,19 @@
         <v>22</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>20</v>
